--- a/03.sample-data-fx.blank.xlsx
+++ b/03.sample-data-fx.blank.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Chandoo.org\Courses\FREE DA Course\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Downloads\4-hour-course-xl-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F91E6CD-71AB-448D-90C3-DA8A53DB92F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED1A8E0-EEFE-4492-A328-57749A245CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$B$2:$B$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="783">
   <si>
     <t>Emp ID</t>
   </si>
@@ -2339,16 +2367,64 @@
   </si>
   <si>
     <t>Calculate Median Salary and Female Ratio</t>
+  </si>
+  <si>
+    <t>Headcount</t>
+  </si>
+  <si>
+    <t>TotalSalary</t>
+  </si>
+  <si>
+    <t>Avg.Salary</t>
+  </si>
+  <si>
+    <t>PrmntEmpType</t>
+  </si>
+  <si>
+    <t>Emp with &gt;100k Salary</t>
+  </si>
+  <si>
+    <t>Female Emp</t>
+  </si>
+  <si>
+    <t>Permanent female emp</t>
+  </si>
+  <si>
+    <t>All female emp with 100000 Salary</t>
+  </si>
+  <si>
+    <t>female emp saem above condition just columns 1 to 6th</t>
+  </si>
+  <si>
+    <t>details of female employees with a salary greater than the value in cell B96 and a start date after 31-Dec-2020 using the FILTER function.</t>
+  </si>
+  <si>
+    <t>Lowest Salary</t>
+  </si>
+  <si>
+    <t>Highest Salary</t>
+  </si>
+  <si>
+    <t>Top 5 Salaries</t>
+  </si>
+  <si>
+    <t>All Emp</t>
+  </si>
+  <si>
+    <t>(can hide this row )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2383,8 +2459,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2415,8 +2535,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2462,11 +2599,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2476,7 +2641,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2535,8 +2700,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -2545,10 +2737,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <numFmt numFmtId="166" formatCode="d\-mmm\-yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2677,6 +2869,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71B18D4F-F180-46A4-9272-AD02F8205A18}" name="staff" displayName="staff" ref="C7:O267" totalsRowShown="0">
+  <autoFilter ref="C7:O267" xr:uid="{71B18D4F-F180-46A4-9272-AD02F8205A18}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="greaterThanOrEqual" val="100000"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="greaterThan" val="100k"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:O267">
     <sortCondition ref="C7:C267"/>
   </sortState>
@@ -2700,9 +2904,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2740,7 +2944,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2846,7 +3050,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2988,7 +3192,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3002,31 +3206,31 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="3" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
         <v>758</v>
@@ -3039,7 +3243,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="10">
         <v>1</v>
       </c>
@@ -3057,7 +3261,7 @@
       <c r="J6" s="6"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="12">
         <v>2</v>
       </c>
@@ -3073,7 +3277,7 @@
       <c r="J7" s="6"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="12">
         <v>3</v>
       </c>
@@ -3091,7 +3295,7 @@
       <c r="J8" s="6"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="12">
         <v>4</v>
       </c>
@@ -3107,7 +3311,7 @@
       <c r="J9" s="6"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="12">
         <v>5</v>
       </c>
@@ -3125,7 +3329,7 @@
       <c r="J10" s="6"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="12">
         <v>6</v>
       </c>
@@ -3141,7 +3345,7 @@
       <c r="J11" s="6"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="12">
         <v>7</v>
       </c>
@@ -3159,7 +3363,7 @@
       <c r="J12" s="6"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="18">
         <v>8</v>
       </c>
@@ -3175,7 +3379,7 @@
       <c r="J13" s="6"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="18">
         <v>9</v>
       </c>
@@ -3193,7 +3397,7 @@
       <c r="J14" s="6"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="21">
         <v>10</v>
       </c>
@@ -3211,1252 +3415,1252 @@
       <c r="J15" s="6"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H16" s="5"/>
       <c r="J16" s="6"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H17" s="5"/>
       <c r="J17" s="6"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H18" s="5"/>
       <c r="J18" s="6"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H19" s="5"/>
       <c r="J19" s="6"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H20" s="5"/>
       <c r="J20" s="6"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H21" s="5"/>
       <c r="J21" s="6"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H22" s="5"/>
       <c r="J22" s="6"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H23" s="5"/>
       <c r="J23" s="6"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H24" s="5"/>
       <c r="J24" s="6"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H25" s="5"/>
       <c r="J25" s="6"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H26" s="5"/>
       <c r="J26" s="6"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H27" s="5"/>
       <c r="J27" s="6"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H28" s="5"/>
       <c r="J28" s="6"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H29" s="5"/>
       <c r="J29" s="6"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H30" s="5"/>
       <c r="J30" s="6"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H31" s="5"/>
       <c r="J31" s="6"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H32" s="5"/>
       <c r="J32" s="6"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H33" s="5"/>
       <c r="J33" s="6"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H34" s="5"/>
       <c r="J34" s="6"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H35" s="5"/>
       <c r="J35" s="6"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H36" s="5"/>
       <c r="J36" s="6"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H37" s="5"/>
       <c r="J37" s="6"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H38" s="5"/>
       <c r="J38" s="6"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H39" s="5"/>
       <c r="J39" s="6"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H40" s="5"/>
       <c r="J40" s="6"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H41" s="5"/>
       <c r="J41" s="6"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H42" s="5"/>
       <c r="J42" s="6"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H43" s="5"/>
       <c r="J43" s="6"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H44" s="5"/>
       <c r="J44" s="6"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H45" s="5"/>
       <c r="J45" s="6"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H46" s="5"/>
       <c r="J46" s="6"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H47" s="5"/>
       <c r="J47" s="6"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H48" s="5"/>
       <c r="J48" s="6"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H49" s="5"/>
       <c r="J49" s="6"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H50" s="5"/>
       <c r="J50" s="6"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H51" s="5"/>
       <c r="J51" s="6"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H52" s="5"/>
       <c r="J52" s="6"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H53" s="5"/>
       <c r="J53" s="6"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H54" s="5"/>
       <c r="J54" s="6"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H55" s="5"/>
       <c r="J55" s="6"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H56" s="5"/>
       <c r="J56" s="6"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H57" s="5"/>
       <c r="J57" s="6"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H58" s="5"/>
       <c r="J58" s="6"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H59" s="5"/>
       <c r="J59" s="6"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H60" s="5"/>
       <c r="J60" s="6"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H61" s="5"/>
       <c r="J61" s="6"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H62" s="5"/>
       <c r="J62" s="6"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H63" s="5"/>
       <c r="J63" s="6"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H64" s="5"/>
       <c r="J64" s="6"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H65" s="5"/>
       <c r="J65" s="6"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H66" s="5"/>
       <c r="J66" s="6"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H67" s="5"/>
       <c r="J67" s="6"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H68" s="5"/>
       <c r="J68" s="6"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H69" s="5"/>
       <c r="J69" s="6"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H70" s="5"/>
       <c r="J70" s="6"/>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H71" s="5"/>
       <c r="J71" s="6"/>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H72" s="5"/>
       <c r="J72" s="6"/>
       <c r="N72" s="4"/>
     </row>
-    <row r="73" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H73" s="5"/>
       <c r="J73" s="6"/>
       <c r="N73" s="4"/>
     </row>
-    <row r="74" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H74" s="5"/>
       <c r="J74" s="6"/>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H75" s="5"/>
       <c r="J75" s="6"/>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H76" s="5"/>
       <c r="J76" s="6"/>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H77" s="5"/>
       <c r="J77" s="6"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H78" s="5"/>
       <c r="J78" s="6"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H79" s="5"/>
       <c r="J79" s="6"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H80" s="5"/>
       <c r="J80" s="6"/>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H81" s="5"/>
       <c r="J81" s="6"/>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H82" s="5"/>
       <c r="J82" s="6"/>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H83" s="5"/>
       <c r="J83" s="6"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H84" s="5"/>
       <c r="J84" s="6"/>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H85" s="5"/>
       <c r="J85" s="6"/>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H86" s="5"/>
       <c r="J86" s="6"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H87" s="5"/>
       <c r="J87" s="6"/>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H88" s="5"/>
       <c r="J88" s="6"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H89" s="5"/>
       <c r="J89" s="6"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H90" s="5"/>
       <c r="J90" s="6"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H91" s="5"/>
       <c r="J91" s="6"/>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H92" s="5"/>
       <c r="J92" s="6"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H93" s="5"/>
       <c r="J93" s="6"/>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H94" s="5"/>
       <c r="J94" s="6"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H95" s="5"/>
       <c r="J95" s="6"/>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H96" s="5"/>
       <c r="J96" s="6"/>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H97" s="5"/>
       <c r="J97" s="6"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H98" s="5"/>
       <c r="J98" s="6"/>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H99" s="5"/>
       <c r="J99" s="6"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H100" s="5"/>
       <c r="J100" s="6"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H101" s="5"/>
       <c r="J101" s="6"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H102" s="5"/>
       <c r="J102" s="6"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H103" s="5"/>
       <c r="J103" s="6"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H104" s="5"/>
       <c r="J104" s="6"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H105" s="5"/>
       <c r="J105" s="6"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H106" s="5"/>
       <c r="J106" s="6"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H107" s="5"/>
       <c r="J107" s="6"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H108" s="5"/>
       <c r="J108" s="6"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H109" s="5"/>
       <c r="J109" s="6"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H110" s="5"/>
       <c r="J110" s="6"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H111" s="5"/>
       <c r="J111" s="6"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H112" s="5"/>
       <c r="J112" s="6"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H113" s="5"/>
       <c r="J113" s="6"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H114" s="5"/>
       <c r="J114" s="6"/>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H115" s="5"/>
       <c r="J115" s="6"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H116" s="5"/>
       <c r="J116" s="6"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H117" s="5"/>
       <c r="J117" s="6"/>
       <c r="N117" s="4"/>
     </row>
-    <row r="118" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H118" s="5"/>
       <c r="J118" s="6"/>
       <c r="N118" s="4"/>
     </row>
-    <row r="119" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H119" s="5"/>
       <c r="J119" s="6"/>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H120" s="5"/>
       <c r="J120" s="6"/>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H121" s="5"/>
       <c r="J121" s="6"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H122" s="5"/>
       <c r="J122" s="6"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H123" s="5"/>
       <c r="J123" s="6"/>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H124" s="5"/>
       <c r="J124" s="6"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H125" s="5"/>
       <c r="J125" s="6"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H126" s="5"/>
       <c r="J126" s="6"/>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H127" s="5"/>
       <c r="J127" s="6"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H128" s="5"/>
       <c r="J128" s="6"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H129" s="5"/>
       <c r="J129" s="6"/>
       <c r="N129" s="4"/>
     </row>
-    <row r="130" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H130" s="5"/>
       <c r="J130" s="6"/>
       <c r="N130" s="4"/>
     </row>
-    <row r="131" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H131" s="5"/>
       <c r="J131" s="6"/>
       <c r="N131" s="4"/>
     </row>
-    <row r="132" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H132" s="5"/>
       <c r="J132" s="6"/>
       <c r="N132" s="4"/>
     </row>
-    <row r="133" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H133" s="5"/>
       <c r="J133" s="6"/>
       <c r="N133" s="4"/>
     </row>
-    <row r="134" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H134" s="5"/>
       <c r="J134" s="6"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H135" s="5"/>
       <c r="J135" s="6"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H136" s="5"/>
       <c r="J136" s="6"/>
       <c r="N136" s="4"/>
     </row>
-    <row r="137" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H137" s="5"/>
       <c r="J137" s="6"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H138" s="5"/>
       <c r="J138" s="6"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H139" s="5"/>
       <c r="J139" s="6"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H140" s="5"/>
       <c r="J140" s="6"/>
       <c r="N140" s="4"/>
     </row>
-    <row r="141" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H141" s="5"/>
       <c r="J141" s="6"/>
       <c r="N141" s="4"/>
     </row>
-    <row r="142" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H142" s="5"/>
       <c r="J142" s="6"/>
       <c r="N142" s="4"/>
     </row>
-    <row r="143" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H143" s="5"/>
       <c r="J143" s="6"/>
       <c r="N143" s="4"/>
     </row>
-    <row r="144" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H144" s="5"/>
       <c r="J144" s="6"/>
       <c r="N144" s="4"/>
     </row>
-    <row r="145" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H145" s="5"/>
       <c r="J145" s="6"/>
       <c r="N145" s="4"/>
     </row>
-    <row r="146" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H146" s="5"/>
       <c r="J146" s="6"/>
       <c r="N146" s="4"/>
     </row>
-    <row r="147" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H147" s="5"/>
       <c r="J147" s="6"/>
       <c r="N147" s="4"/>
     </row>
-    <row r="148" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H148" s="5"/>
       <c r="J148" s="6"/>
       <c r="N148" s="4"/>
     </row>
-    <row r="149" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H149" s="5"/>
       <c r="J149" s="6"/>
       <c r="N149" s="4"/>
     </row>
-    <row r="150" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H150" s="5"/>
       <c r="J150" s="6"/>
       <c r="N150" s="4"/>
     </row>
-    <row r="151" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H151" s="5"/>
       <c r="J151" s="6"/>
       <c r="N151" s="4"/>
     </row>
-    <row r="152" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H152" s="5"/>
       <c r="J152" s="6"/>
       <c r="N152" s="4"/>
     </row>
-    <row r="153" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H153" s="5"/>
       <c r="J153" s="6"/>
       <c r="N153" s="4"/>
     </row>
-    <row r="154" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H154" s="5"/>
       <c r="J154" s="6"/>
       <c r="N154" s="4"/>
     </row>
-    <row r="155" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H155" s="5"/>
       <c r="J155" s="6"/>
       <c r="N155" s="4"/>
     </row>
-    <row r="156" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H156" s="5"/>
       <c r="J156" s="6"/>
       <c r="N156" s="4"/>
     </row>
-    <row r="157" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H157" s="5"/>
       <c r="J157" s="6"/>
       <c r="N157" s="4"/>
     </row>
-    <row r="158" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H158" s="5"/>
       <c r="J158" s="6"/>
       <c r="N158" s="4"/>
     </row>
-    <row r="159" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H159" s="5"/>
       <c r="J159" s="6"/>
       <c r="N159" s="4"/>
     </row>
-    <row r="160" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H160" s="5"/>
       <c r="J160" s="6"/>
       <c r="N160" s="4"/>
     </row>
-    <row r="161" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H161" s="5"/>
       <c r="J161" s="6"/>
       <c r="N161" s="4"/>
     </row>
-    <row r="162" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H162" s="5"/>
       <c r="J162" s="6"/>
       <c r="N162" s="4"/>
     </row>
-    <row r="163" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H163" s="5"/>
       <c r="J163" s="6"/>
       <c r="N163" s="4"/>
     </row>
-    <row r="164" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H164" s="5"/>
       <c r="J164" s="6"/>
       <c r="N164" s="4"/>
     </row>
-    <row r="165" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H165" s="5"/>
       <c r="J165" s="6"/>
       <c r="N165" s="4"/>
     </row>
-    <row r="166" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H166" s="5"/>
       <c r="J166" s="6"/>
       <c r="N166" s="4"/>
     </row>
-    <row r="167" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H167" s="5"/>
       <c r="J167" s="6"/>
       <c r="N167" s="4"/>
     </row>
-    <row r="168" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H168" s="5"/>
       <c r="J168" s="6"/>
       <c r="N168" s="4"/>
     </row>
-    <row r="169" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H169" s="5"/>
       <c r="J169" s="6"/>
       <c r="N169" s="4"/>
     </row>
-    <row r="170" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H170" s="5"/>
       <c r="J170" s="6"/>
       <c r="N170" s="4"/>
     </row>
-    <row r="171" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H171" s="5"/>
       <c r="J171" s="6"/>
       <c r="N171" s="4"/>
     </row>
-    <row r="172" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H172" s="5"/>
       <c r="J172" s="6"/>
       <c r="N172" s="4"/>
     </row>
-    <row r="173" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H173" s="5"/>
       <c r="J173" s="6"/>
       <c r="N173" s="4"/>
     </row>
-    <row r="174" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H174" s="5"/>
       <c r="J174" s="6"/>
       <c r="N174" s="4"/>
     </row>
-    <row r="175" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H175" s="5"/>
       <c r="J175" s="6"/>
       <c r="N175" s="4"/>
     </row>
-    <row r="176" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H176" s="5"/>
       <c r="J176" s="6"/>
       <c r="N176" s="4"/>
     </row>
-    <row r="177" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H177" s="5"/>
       <c r="J177" s="6"/>
       <c r="N177" s="4"/>
     </row>
-    <row r="178" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H178" s="5"/>
       <c r="J178" s="6"/>
       <c r="N178" s="4"/>
     </row>
-    <row r="179" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H179" s="5"/>
       <c r="J179" s="6"/>
       <c r="N179" s="4"/>
     </row>
-    <row r="180" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H180" s="5"/>
       <c r="J180" s="6"/>
       <c r="N180" s="4"/>
     </row>
-    <row r="181" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H181" s="5"/>
       <c r="J181" s="6"/>
       <c r="N181" s="4"/>
     </row>
-    <row r="182" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H182" s="5"/>
       <c r="J182" s="6"/>
       <c r="N182" s="4"/>
     </row>
-    <row r="183" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H183" s="5"/>
       <c r="J183" s="6"/>
       <c r="N183" s="4"/>
     </row>
-    <row r="184" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H184" s="5"/>
       <c r="J184" s="6"/>
       <c r="N184" s="4"/>
     </row>
-    <row r="185" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H185" s="5"/>
       <c r="J185" s="6"/>
       <c r="N185" s="4"/>
     </row>
-    <row r="186" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H186" s="5"/>
       <c r="J186" s="6"/>
       <c r="N186" s="4"/>
     </row>
-    <row r="187" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H187" s="5"/>
       <c r="J187" s="6"/>
       <c r="N187" s="4"/>
     </row>
-    <row r="188" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H188" s="5"/>
       <c r="J188" s="6"/>
       <c r="N188" s="4"/>
     </row>
-    <row r="189" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H189" s="5"/>
       <c r="J189" s="6"/>
       <c r="N189" s="4"/>
     </row>
-    <row r="190" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H190" s="5"/>
       <c r="J190" s="6"/>
       <c r="N190" s="4"/>
     </row>
-    <row r="191" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H191" s="5"/>
       <c r="J191" s="6"/>
       <c r="N191" s="4"/>
     </row>
-    <row r="192" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H192" s="5"/>
       <c r="J192" s="6"/>
       <c r="N192" s="4"/>
     </row>
-    <row r="193" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H193" s="5"/>
       <c r="J193" s="6"/>
       <c r="N193" s="4"/>
     </row>
-    <row r="194" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H194" s="5"/>
       <c r="J194" s="6"/>
       <c r="N194" s="4"/>
     </row>
-    <row r="195" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H195" s="5"/>
       <c r="J195" s="6"/>
       <c r="N195" s="4"/>
     </row>
-    <row r="196" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H196" s="5"/>
       <c r="J196" s="6"/>
       <c r="N196" s="4"/>
     </row>
-    <row r="197" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H197" s="5"/>
       <c r="J197" s="6"/>
       <c r="N197" s="4"/>
     </row>
-    <row r="198" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H198" s="5"/>
       <c r="J198" s="6"/>
       <c r="N198" s="4"/>
     </row>
-    <row r="199" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H199" s="5"/>
       <c r="J199" s="6"/>
       <c r="N199" s="4"/>
     </row>
-    <row r="200" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H200" s="5"/>
       <c r="J200" s="6"/>
       <c r="N200" s="4"/>
     </row>
-    <row r="201" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H201" s="5"/>
       <c r="J201" s="6"/>
       <c r="N201" s="4"/>
     </row>
-    <row r="202" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H202" s="5"/>
       <c r="J202" s="6"/>
       <c r="N202" s="4"/>
     </row>
-    <row r="203" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H203" s="5"/>
       <c r="J203" s="6"/>
       <c r="N203" s="4"/>
     </row>
-    <row r="204" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H204" s="5"/>
       <c r="J204" s="6"/>
       <c r="N204" s="4"/>
     </row>
-    <row r="205" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H205" s="5"/>
       <c r="J205" s="6"/>
       <c r="N205" s="4"/>
     </row>
-    <row r="206" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H206" s="5"/>
       <c r="J206" s="6"/>
       <c r="N206" s="4"/>
     </row>
-    <row r="207" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H207" s="5"/>
       <c r="J207" s="6"/>
       <c r="N207" s="4"/>
     </row>
-    <row r="208" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H208" s="5"/>
       <c r="J208" s="6"/>
       <c r="N208" s="4"/>
     </row>
-    <row r="209" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H209" s="5"/>
       <c r="J209" s="6"/>
       <c r="N209" s="4"/>
     </row>
-    <row r="210" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H210" s="5"/>
       <c r="J210" s="6"/>
       <c r="N210" s="4"/>
     </row>
-    <row r="211" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H211" s="5"/>
       <c r="J211" s="6"/>
       <c r="N211" s="4"/>
     </row>
-    <row r="212" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H212" s="5"/>
       <c r="J212" s="6"/>
       <c r="N212" s="4"/>
     </row>
-    <row r="213" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H213" s="5"/>
       <c r="J213" s="6"/>
       <c r="N213" s="4"/>
     </row>
-    <row r="214" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H214" s="5"/>
       <c r="J214" s="6"/>
       <c r="N214" s="4"/>
     </row>
-    <row r="215" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H215" s="5"/>
       <c r="J215" s="6"/>
       <c r="N215" s="4"/>
     </row>
-    <row r="216" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H216" s="5"/>
       <c r="J216" s="6"/>
       <c r="N216" s="4"/>
     </row>
-    <row r="217" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H217" s="5"/>
       <c r="J217" s="6"/>
       <c r="N217" s="4"/>
     </row>
-    <row r="218" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H218" s="5"/>
       <c r="J218" s="6"/>
       <c r="N218" s="4"/>
     </row>
-    <row r="219" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H219" s="5"/>
       <c r="J219" s="6"/>
       <c r="N219" s="4"/>
     </row>
-    <row r="220" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H220" s="5"/>
       <c r="J220" s="6"/>
       <c r="N220" s="4"/>
     </row>
-    <row r="221" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H221" s="5"/>
       <c r="J221" s="6"/>
       <c r="N221" s="4"/>
     </row>
-    <row r="222" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H222" s="5"/>
       <c r="J222" s="6"/>
       <c r="N222" s="4"/>
     </row>
-    <row r="223" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H223" s="5"/>
       <c r="J223" s="6"/>
       <c r="N223" s="4"/>
     </row>
-    <row r="224" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H224" s="5"/>
       <c r="J224" s="6"/>
       <c r="N224" s="4"/>
     </row>
-    <row r="225" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H225" s="5"/>
       <c r="J225" s="6"/>
       <c r="N225" s="4"/>
     </row>
-    <row r="226" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H226" s="5"/>
       <c r="J226" s="6"/>
       <c r="N226" s="4"/>
     </row>
-    <row r="227" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H227" s="5"/>
       <c r="J227" s="6"/>
       <c r="N227" s="4"/>
     </row>
-    <row r="228" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H228" s="5"/>
       <c r="J228" s="6"/>
       <c r="N228" s="4"/>
     </row>
-    <row r="229" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H229" s="5"/>
       <c r="J229" s="6"/>
       <c r="N229" s="4"/>
     </row>
-    <row r="230" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H230" s="5"/>
       <c r="J230" s="6"/>
       <c r="N230" s="4"/>
     </row>
-    <row r="231" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H231" s="5"/>
       <c r="J231" s="6"/>
       <c r="N231" s="4"/>
     </row>
-    <row r="232" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H232" s="5"/>
       <c r="J232" s="6"/>
       <c r="N232" s="4"/>
     </row>
-    <row r="233" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H233" s="5"/>
       <c r="J233" s="6"/>
       <c r="N233" s="4"/>
     </row>
-    <row r="234" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H234" s="5"/>
       <c r="J234" s="6"/>
       <c r="N234" s="4"/>
     </row>
-    <row r="235" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H235" s="5"/>
       <c r="J235" s="6"/>
       <c r="N235" s="4"/>
     </row>
-    <row r="236" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H236" s="5"/>
       <c r="J236" s="6"/>
       <c r="N236" s="4"/>
     </row>
-    <row r="237" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H237" s="5"/>
       <c r="J237" s="6"/>
       <c r="N237" s="4"/>
     </row>
-    <row r="238" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H238" s="5"/>
       <c r="J238" s="6"/>
       <c r="N238" s="4"/>
     </row>
-    <row r="239" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H239" s="5"/>
       <c r="J239" s="6"/>
       <c r="N239" s="4"/>
     </row>
-    <row r="240" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H240" s="5"/>
       <c r="J240" s="6"/>
       <c r="N240" s="4"/>
     </row>
-    <row r="241" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H241" s="5"/>
       <c r="J241" s="6"/>
       <c r="N241" s="4"/>
     </row>
-    <row r="242" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H242" s="5"/>
       <c r="J242" s="6"/>
       <c r="N242" s="4"/>
     </row>
-    <row r="243" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H243" s="5"/>
       <c r="J243" s="6"/>
       <c r="N243" s="4"/>
     </row>
-    <row r="244" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H244" s="5"/>
       <c r="J244" s="6"/>
       <c r="N244" s="4"/>
     </row>
-    <row r="245" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H245" s="5"/>
       <c r="J245" s="6"/>
       <c r="N245" s="4"/>
     </row>
-    <row r="246" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H246" s="5"/>
       <c r="J246" s="6"/>
       <c r="N246" s="4"/>
     </row>
-    <row r="247" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H247" s="5"/>
       <c r="J247" s="6"/>
       <c r="N247" s="4"/>
     </row>
-    <row r="248" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H248" s="5"/>
       <c r="J248" s="6"/>
       <c r="N248" s="4"/>
     </row>
-    <row r="249" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H249" s="5"/>
       <c r="J249" s="6"/>
       <c r="N249" s="4"/>
     </row>
-    <row r="250" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H250" s="5"/>
       <c r="J250" s="6"/>
       <c r="N250" s="4"/>
     </row>
-    <row r="251" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H251" s="5"/>
       <c r="J251" s="6"/>
       <c r="N251" s="4"/>
     </row>
-    <row r="252" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H252" s="5"/>
       <c r="J252" s="6"/>
       <c r="N252" s="4"/>
     </row>
-    <row r="253" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H253" s="5"/>
       <c r="J253" s="6"/>
       <c r="N253" s="4"/>
     </row>
-    <row r="254" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H254" s="5"/>
       <c r="J254" s="6"/>
       <c r="N254" s="4"/>
     </row>
-    <row r="255" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H255" s="5"/>
       <c r="J255" s="6"/>
       <c r="N255" s="4"/>
     </row>
-    <row r="256" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H256" s="5"/>
       <c r="J256" s="6"/>
       <c r="N256" s="4"/>
     </row>
-    <row r="257" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H257" s="5"/>
       <c r="J257" s="6"/>
       <c r="N257" s="4"/>
     </row>
-    <row r="258" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H258" s="5"/>
       <c r="J258" s="6"/>
       <c r="N258" s="4"/>
     </row>
-    <row r="259" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H259" s="5"/>
       <c r="J259" s="6"/>
       <c r="N259" s="4"/>
     </row>
-    <row r="260" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H260" s="5"/>
       <c r="J260" s="6"/>
       <c r="N260" s="4"/>
     </row>
-    <row r="261" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H261" s="5"/>
       <c r="J261" s="6"/>
       <c r="N261" s="4"/>
     </row>
-    <row r="262" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H262" s="5"/>
       <c r="J262" s="6"/>
       <c r="N262" s="4"/>
     </row>
-    <row r="263" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H263" s="5"/>
       <c r="J263" s="6"/>
       <c r="N263" s="4"/>
     </row>
-    <row r="264" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H264" s="5"/>
       <c r="J264" s="6"/>
       <c r="N264" s="4"/>
     </row>
-    <row r="265" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H265" s="5"/>
       <c r="J265" s="6"/>
       <c r="N265" s="4"/>
@@ -4471,35 +4675,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE182796-6443-4558-9B87-909B73329DFC}">
   <dimension ref="A1:O267"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="3" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -4515,13 +4719,13 @@
       <c r="G7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="36" t="s">
         <v>5</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="31" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="8" t="s">
@@ -4540,7 +4744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>627</v>
       </c>
@@ -4581,7 +4785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>309</v>
       </c>
@@ -4622,7 +4826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>608</v>
       </c>
@@ -4663,7 +4867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>608</v>
       </c>
@@ -4704,8 +4908,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
@@ -4720,13 +4924,13 @@
       <c r="G12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="35">
         <v>120000</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="31">
         <v>43416</v>
       </c>
       <c r="K12">
@@ -4745,7 +4949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>645</v>
       </c>
@@ -4786,7 +4990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>59</v>
       </c>
@@ -4827,7 +5031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>225</v>
       </c>
@@ -4868,8 +5072,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C16" s="35" t="s">
         <v>504</v>
       </c>
       <c r="D16" t="s">
@@ -4884,13 +5088,13 @@
       <c r="G16" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="35">
         <v>114177.23</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="31">
         <v>43908</v>
       </c>
       <c r="K16">
@@ -4909,7 +5113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>596</v>
       </c>
@@ -4950,7 +5154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>98</v>
       </c>
@@ -4991,7 +5195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>94</v>
       </c>
@@ -5032,7 +5236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>291</v>
       </c>
@@ -5073,7 +5277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>590</v>
       </c>
@@ -5114,8 +5318,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C22" s="35" t="s">
         <v>276</v>
       </c>
       <c r="D22" t="s">
@@ -5130,13 +5334,13 @@
       <c r="G22" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="35">
         <v>112645.99</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="31">
         <v>43759</v>
       </c>
       <c r="K22">
@@ -5155,7 +5359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>294</v>
       </c>
@@ -5196,7 +5400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>548</v>
       </c>
@@ -5237,7 +5441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>698</v>
       </c>
@@ -5278,7 +5482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>246</v>
       </c>
@@ -5319,7 +5523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>609</v>
       </c>
@@ -5360,7 +5564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>666</v>
       </c>
@@ -5401,7 +5605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -5442,7 +5646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>672</v>
       </c>
@@ -5483,7 +5687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>389</v>
       </c>
@@ -5524,7 +5728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>389</v>
       </c>
@@ -5565,8 +5769,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C33" s="35" t="s">
         <v>336</v>
       </c>
       <c r="D33" t="s">
@@ -5581,13 +5785,13 @@
       <c r="G33" t="s">
         <v>124</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="35">
         <v>115191.38</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="31">
         <v>44004</v>
       </c>
       <c r="K33">
@@ -5606,7 +5810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>533</v>
       </c>
@@ -5647,7 +5851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>342</v>
       </c>
@@ -5688,7 +5892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>392</v>
       </c>
@@ -5729,8 +5933,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C37" s="35" t="s">
         <v>189</v>
       </c>
       <c r="D37" t="s">
@@ -5745,13 +5949,13 @@
       <c r="G37" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="35">
         <v>102934.09</v>
       </c>
       <c r="I37" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="31">
         <v>44315</v>
       </c>
       <c r="K37">
@@ -5770,7 +5974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>575</v>
       </c>
@@ -5811,8 +6015,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C39" s="35" t="s">
         <v>121</v>
       </c>
       <c r="D39" t="s">
@@ -5827,13 +6031,13 @@
       <c r="G39" t="s">
         <v>124</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="35">
         <v>104335.03999999999</v>
       </c>
       <c r="I39" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="31">
         <v>43874</v>
       </c>
       <c r="K39">
@@ -5852,7 +6056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>445</v>
       </c>
@@ -5893,7 +6097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>707</v>
       </c>
@@ -5934,7 +6138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>115</v>
       </c>
@@ -5975,7 +6179,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>216</v>
       </c>
@@ -6016,7 +6220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>560</v>
       </c>
@@ -6057,7 +6261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>273</v>
       </c>
@@ -6098,7 +6302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>642</v>
       </c>
@@ -6139,7 +6343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>118</v>
       </c>
@@ -6180,7 +6384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>469</v>
       </c>
@@ -6221,7 +6425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>102</v>
       </c>
@@ -6262,7 +6466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>721</v>
       </c>
@@ -6303,7 +6507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>321</v>
       </c>
@@ -6344,7 +6548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>321</v>
       </c>
@@ -6385,7 +6589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>198</v>
       </c>
@@ -6426,8 +6630,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C54" s="35" t="s">
         <v>501</v>
       </c>
       <c r="D54" t="s">
@@ -6442,13 +6646,13 @@
       <c r="G54" t="s">
         <v>101</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="35">
         <v>119022.49</v>
       </c>
       <c r="I54" t="s">
         <v>17</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="31">
         <v>44431</v>
       </c>
       <c r="K54">
@@ -6467,7 +6671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>258</v>
       </c>
@@ -6508,7 +6712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>728</v>
       </c>
@@ -6549,7 +6753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>282</v>
       </c>
@@ -6590,7 +6794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>413</v>
       </c>
@@ -6631,7 +6835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>69</v>
       </c>
@@ -6672,8 +6876,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C60" s="35" t="s">
         <v>46</v>
       </c>
       <c r="D60" t="s">
@@ -6688,13 +6892,13 @@
       <c r="G60" t="s">
         <v>50</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="35">
         <v>104802.63</v>
       </c>
       <c r="I60" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="31">
         <v>44502</v>
       </c>
       <c r="K60">
@@ -6713,7 +6917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>21</v>
       </c>
@@ -6754,7 +6958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>624</v>
       </c>
@@ -6795,8 +6999,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C63" s="35" t="s">
         <v>434</v>
       </c>
       <c r="D63" t="s">
@@ -6811,13 +7015,13 @@
       <c r="G63" t="s">
         <v>25</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="35">
         <v>110042.37</v>
       </c>
       <c r="I63" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="31">
         <v>43914</v>
       </c>
       <c r="K63">
@@ -6836,7 +7040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>578</v>
       </c>
@@ -6877,7 +7081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>510</v>
       </c>
@@ -6918,8 +7122,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C66" s="35" t="s">
         <v>42</v>
       </c>
       <c r="D66" t="s">
@@ -6934,13 +7138,13 @@
       <c r="G66" t="s">
         <v>16</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="35">
         <v>118976.16</v>
       </c>
       <c r="I66" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="31">
         <v>44120</v>
       </c>
       <c r="K66">
@@ -6959,7 +7163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>605</v>
       </c>
@@ -7000,7 +7204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>657</v>
       </c>
@@ -7041,7 +7245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>186</v>
       </c>
@@ -7082,7 +7286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>318</v>
       </c>
@@ -7123,8 +7327,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+    <row r="71" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C71" s="35" t="s">
         <v>339</v>
       </c>
       <c r="D71" t="s">
@@ -7139,13 +7343,13 @@
       <c r="G71" t="s">
         <v>131</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="35">
         <v>111049.84</v>
       </c>
       <c r="I71" t="s">
         <v>17</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71" s="31">
         <v>44393</v>
       </c>
       <c r="K71">
@@ -7164,7 +7368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>55</v>
       </c>
@@ -7205,7 +7409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>78</v>
       </c>
@@ -7246,7 +7450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>365</v>
       </c>
@@ -7287,7 +7491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>210</v>
       </c>
@@ -7328,7 +7532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>210</v>
       </c>
@@ -7369,7 +7573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>407</v>
       </c>
@@ -7410,7 +7614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>419</v>
       </c>
@@ -7451,7 +7655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>162</v>
       </c>
@@ -7492,7 +7696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>416</v>
       </c>
@@ -7533,7 +7737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>128</v>
       </c>
@@ -7574,7 +7778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>183</v>
       </c>
@@ -7615,7 +7819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>351</v>
       </c>
@@ -7656,8 +7860,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C84" s="35" t="s">
         <v>147</v>
       </c>
       <c r="D84" t="s">
@@ -7672,13 +7876,13 @@
       <c r="G84" t="s">
         <v>131</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="35">
         <v>113616.23</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J84" s="31">
         <v>43255</v>
       </c>
       <c r="K84">
@@ -7697,7 +7901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>192</v>
       </c>
@@ -7738,7 +7942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>348</v>
       </c>
@@ -7779,7 +7983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>566</v>
       </c>
@@ -7820,7 +8024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>431</v>
       </c>
@@ -7861,7 +8065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>51</v>
       </c>
@@ -7902,7 +8106,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>410</v>
       </c>
@@ -7943,7 +8147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>410</v>
       </c>
@@ -7984,8 +8188,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C92" s="35" t="s">
         <v>654</v>
       </c>
       <c r="D92" t="s">
@@ -8000,13 +8204,13 @@
       <c r="G92" t="s">
         <v>97</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92" s="35">
         <v>103494.94</v>
       </c>
       <c r="I92" t="s">
         <v>17</v>
       </c>
-      <c r="J92" s="6">
+      <c r="J92" s="31">
         <v>43256</v>
       </c>
       <c r="K92">
@@ -8025,8 +8229,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
+    <row r="93" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C93" s="35" t="s">
         <v>654</v>
       </c>
       <c r="D93" t="s">
@@ -8041,13 +8245,13 @@
       <c r="G93" t="s">
         <v>97</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="35">
         <v>103494.94</v>
       </c>
       <c r="I93" t="s">
         <v>17</v>
       </c>
-      <c r="J93" s="6">
+      <c r="J93" s="31">
         <v>43256</v>
       </c>
       <c r="K93">
@@ -8066,8 +8270,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
+    <row r="94" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C94" s="35" t="s">
         <v>557</v>
       </c>
       <c r="D94" t="s">
@@ -8082,13 +8286,13 @@
       <c r="G94" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H94" s="35">
         <v>118442.54</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
       </c>
-      <c r="J94" s="6">
+      <c r="J94" s="31">
         <v>44193</v>
       </c>
       <c r="K94">
@@ -8107,7 +8311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>333</v>
       </c>
@@ -8148,7 +8352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>204</v>
       </c>
@@ -8189,7 +8393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>648</v>
       </c>
@@ -8230,7 +8434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>513</v>
       </c>
@@ -8271,7 +8475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>633</v>
       </c>
@@ -8312,7 +8516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>213</v>
       </c>
@@ -8353,7 +8557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>132</v>
       </c>
@@ -8394,7 +8598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>132</v>
       </c>
@@ -8435,7 +8639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>685</v>
       </c>
@@ -8476,7 +8680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>688</v>
       </c>
@@ -8517,8 +8721,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
+    <row r="105" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C105" s="35" t="s">
         <v>682</v>
       </c>
       <c r="D105" t="s">
@@ -8533,13 +8737,13 @@
       <c r="G105" t="s">
         <v>16</v>
       </c>
-      <c r="H105" s="5">
+      <c r="H105" s="35">
         <v>114772.32</v>
       </c>
       <c r="I105" t="s">
         <v>17</v>
       </c>
-      <c r="J105" s="6">
+      <c r="J105" s="31">
         <v>44251</v>
       </c>
       <c r="K105">
@@ -8558,7 +8762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>451</v>
       </c>
@@ -8599,7 +8803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>487</v>
       </c>
@@ -8640,8 +8844,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
+    <row r="108" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C108" s="35" t="s">
         <v>519</v>
       </c>
       <c r="D108" t="s">
@@ -8656,13 +8860,13 @@
       <c r="G108" t="s">
         <v>54</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="35">
         <v>104903.79</v>
       </c>
       <c r="I108" t="s">
         <v>17</v>
       </c>
-      <c r="J108" s="6">
+      <c r="J108" s="31">
         <v>43649</v>
       </c>
       <c r="K108">
@@ -8681,7 +8885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>234</v>
       </c>
@@ -8722,7 +8926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>234</v>
       </c>
@@ -8763,7 +8967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>669</v>
       </c>
@@ -8804,8 +9008,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
+    <row r="112" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C112" s="35" t="s">
         <v>448</v>
       </c>
       <c r="D112" t="s">
@@ -8820,13 +9024,13 @@
       <c r="G112" t="s">
         <v>16</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112" s="35">
         <v>108872.77</v>
       </c>
       <c r="I112" t="s">
         <v>17</v>
       </c>
-      <c r="J112" s="6">
+      <c r="J112" s="31">
         <v>43521</v>
       </c>
       <c r="K112">
@@ -8845,7 +9049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>360</v>
       </c>
@@ -8886,7 +9090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>240</v>
       </c>
@@ -8927,7 +9131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>240</v>
       </c>
@@ -8968,8 +9172,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
+    <row r="116" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C116" s="35" t="s">
         <v>507</v>
       </c>
       <c r="D116" t="s">
@@ -8984,13 +9188,13 @@
       <c r="G116" t="s">
         <v>97</v>
       </c>
-      <c r="H116" s="5">
+      <c r="H116" s="35">
         <v>100731.95</v>
       </c>
       <c r="I116" t="s">
         <v>17</v>
       </c>
-      <c r="J116" s="6">
+      <c r="J116" s="31">
         <v>43936</v>
       </c>
       <c r="K116">
@@ -9009,8 +9213,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
+    <row r="117" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C117" s="35" t="s">
         <v>279</v>
       </c>
       <c r="D117" t="s">
@@ -9025,13 +9229,13 @@
       <c r="G117" t="s">
         <v>101</v>
       </c>
-      <c r="H117" s="5">
+      <c r="H117" s="35">
         <v>107107.6</v>
       </c>
       <c r="I117" t="s">
         <v>17</v>
       </c>
-      <c r="J117" s="6">
+      <c r="J117" s="31">
         <v>43325</v>
       </c>
       <c r="K117">
@@ -9050,8 +9254,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
+    <row r="118" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C118" s="35" t="s">
         <v>630</v>
       </c>
       <c r="D118" t="s">
@@ -9066,13 +9270,13 @@
       <c r="G118" t="s">
         <v>105</v>
       </c>
-      <c r="H118" s="5">
+      <c r="H118" s="35">
         <v>102129.37</v>
       </c>
       <c r="I118" t="s">
         <v>17</v>
       </c>
-      <c r="J118" s="6">
+      <c r="J118" s="31">
         <v>44396</v>
       </c>
       <c r="K118">
@@ -9091,7 +9295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>312</v>
       </c>
@@ -9132,7 +9336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>735</v>
       </c>
@@ -9173,7 +9377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>395</v>
       </c>
@@ -9214,8 +9418,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
+    <row r="122" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C122" s="35" t="s">
         <v>525</v>
       </c>
       <c r="D122" t="s">
@@ -9230,13 +9434,13 @@
       <c r="G122" t="s">
         <v>16</v>
       </c>
-      <c r="H122" s="5">
+      <c r="H122" s="35">
         <v>109143.17</v>
       </c>
       <c r="I122" t="s">
         <v>17</v>
       </c>
-      <c r="J122" s="6">
+      <c r="J122" s="31">
         <v>43945</v>
       </c>
       <c r="K122">
@@ -9255,7 +9459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>593</v>
       </c>
@@ -9296,7 +9500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>324</v>
       </c>
@@ -9337,7 +9541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>88</v>
       </c>
@@ -9378,8 +9582,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
+    <row r="126" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C126" s="35" t="s">
         <v>368</v>
       </c>
       <c r="D126" t="s">
@@ -9394,13 +9598,13 @@
       <c r="G126" t="s">
         <v>124</v>
       </c>
-      <c r="H126" s="5">
+      <c r="H126" s="35">
         <v>111229.47</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
       </c>
-      <c r="J126" s="6">
+      <c r="J126" s="31">
         <v>43402</v>
       </c>
       <c r="K126">
@@ -9419,8 +9623,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
+    <row r="127" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C127" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D127" t="s">
@@ -9435,13 +9639,13 @@
       <c r="G127" t="s">
         <v>32</v>
       </c>
-      <c r="H127" s="5">
+      <c r="H127" s="35">
         <v>120000</v>
       </c>
       <c r="I127" t="s">
         <v>17</v>
       </c>
-      <c r="J127" s="6">
+      <c r="J127" s="31">
         <v>43902</v>
       </c>
       <c r="K127">
@@ -9460,7 +9664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>704</v>
       </c>
@@ -9501,8 +9705,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
+    <row r="129" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C129" s="35" t="s">
         <v>460</v>
       </c>
       <c r="D129" t="s">
@@ -9517,13 +9721,13 @@
       <c r="G129" t="s">
         <v>32</v>
       </c>
-      <c r="H129" s="5">
+      <c r="H129" s="35">
         <v>100424.23</v>
       </c>
       <c r="I129" t="s">
         <v>17</v>
       </c>
-      <c r="J129" s="6">
+      <c r="J129" s="31">
         <v>43801</v>
       </c>
       <c r="K129">
@@ -9542,7 +9746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>428</v>
       </c>
@@ -9583,7 +9787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>484</v>
       </c>
@@ -9624,7 +9828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
         <v>285</v>
       </c>
@@ -9665,7 +9869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
         <v>81</v>
       </c>
@@ -9706,7 +9910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>81</v>
       </c>
@@ -9747,7 +9951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>174</v>
       </c>
@@ -9788,7 +9992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>612</v>
       </c>
@@ -9829,7 +10033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>639</v>
       </c>
@@ -9870,7 +10074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>91</v>
       </c>
@@ -9911,8 +10115,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
+    <row r="139" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C139" s="35" t="s">
         <v>551</v>
       </c>
       <c r="D139" t="s">
@@ -9927,13 +10131,13 @@
       <c r="G139" t="s">
         <v>32</v>
       </c>
-      <c r="H139" s="5">
+      <c r="H139" s="35">
         <v>109163.39</v>
       </c>
       <c r="I139" t="s">
         <v>17</v>
       </c>
-      <c r="J139" s="6">
+      <c r="J139" s="31">
         <v>44019</v>
       </c>
       <c r="K139">
@@ -9952,7 +10156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>404</v>
       </c>
@@ -9993,7 +10197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>345</v>
       </c>
@@ -10034,7 +10238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
         <v>327</v>
       </c>
@@ -10075,7 +10279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
         <v>327</v>
       </c>
@@ -10116,7 +10320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>109</v>
       </c>
@@ -10157,7 +10361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>371</v>
       </c>
@@ -10198,7 +10402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>357</v>
       </c>
@@ -10239,7 +10443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>466</v>
       </c>
@@ -10280,7 +10484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>466</v>
       </c>
@@ -10321,8 +10525,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C149" t="s">
+    <row r="149" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C149" s="35" t="s">
         <v>66</v>
       </c>
       <c r="D149" t="s">
@@ -10337,13 +10541,13 @@
       <c r="G149" t="s">
         <v>16</v>
       </c>
-      <c r="H149" s="5">
+      <c r="H149" s="35">
         <v>114425.19</v>
       </c>
       <c r="I149" t="s">
         <v>17</v>
       </c>
-      <c r="J149" s="6">
+      <c r="J149" s="31">
         <v>43857</v>
       </c>
       <c r="K149">
@@ -10362,7 +10566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>401</v>
       </c>
@@ -10403,7 +10607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
         <v>715</v>
       </c>
@@ -10444,7 +10648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
         <v>621</v>
       </c>
@@ -10485,7 +10689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
         <v>563</v>
       </c>
@@ -10526,7 +10730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>563</v>
       </c>
@@ -10567,7 +10771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
         <v>386</v>
       </c>
@@ -10608,7 +10812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>581</v>
       </c>
@@ -10649,7 +10853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
         <v>168</v>
       </c>
@@ -10690,7 +10894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
         <v>168</v>
       </c>
@@ -10731,7 +10935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>422</v>
       </c>
@@ -10772,7 +10976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>697</v>
       </c>
@@ -10813,7 +11017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>660</v>
       </c>
@@ -10854,7 +11058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>718</v>
       </c>
@@ -10895,7 +11099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>691</v>
       </c>
@@ -10936,7 +11140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>252</v>
       </c>
@@ -10977,7 +11181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>156</v>
       </c>
@@ -11018,7 +11222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
         <v>156</v>
       </c>
@@ -11059,7 +11263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
         <v>492</v>
       </c>
@@ -11100,7 +11304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
         <v>492</v>
       </c>
@@ -11141,7 +11345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
         <v>495</v>
       </c>
@@ -11182,7 +11386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>38</v>
       </c>
@@ -11223,7 +11427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>439</v>
       </c>
@@ -11264,7 +11468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
         <v>231</v>
       </c>
@@ -11305,7 +11509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>722</v>
       </c>
@@ -11346,7 +11550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>207</v>
       </c>
@@ -11387,7 +11591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="175" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>207</v>
       </c>
@@ -11428,7 +11632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
         <v>377</v>
       </c>
@@ -11469,7 +11673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C177" t="s">
         <v>554</v>
       </c>
@@ -11510,7 +11714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
         <v>180</v>
       </c>
@@ -11551,7 +11755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
         <v>180</v>
       </c>
@@ -11592,7 +11796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
         <v>195</v>
       </c>
@@ -11633,7 +11837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
         <v>219</v>
       </c>
@@ -11674,7 +11878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C182" t="s">
         <v>569</v>
       </c>
@@ -11715,7 +11919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C183" t="s">
         <v>106</v>
       </c>
@@ -11756,7 +11960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
         <v>303</v>
       </c>
@@ -11797,7 +12001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
         <v>303</v>
       </c>
@@ -11838,8 +12042,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C186" t="s">
+    <row r="186" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C186" s="35" t="s">
         <v>264</v>
       </c>
       <c r="D186" t="s">
@@ -11854,13 +12058,13 @@
       <c r="G186" t="s">
         <v>124</v>
       </c>
-      <c r="H186" s="5">
+      <c r="H186" s="35">
         <v>106775.14</v>
       </c>
       <c r="I186" t="s">
         <v>17</v>
       </c>
-      <c r="J186" s="6">
+      <c r="J186" s="31">
         <v>43563</v>
       </c>
       <c r="K186">
@@ -11879,8 +12083,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C187" t="s">
+    <row r="187" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C187" s="35" t="s">
         <v>264</v>
       </c>
       <c r="D187" t="s">
@@ -11895,13 +12099,13 @@
       <c r="G187" t="s">
         <v>124</v>
       </c>
-      <c r="H187" s="5">
+      <c r="H187" s="35">
         <v>106775.14</v>
       </c>
       <c r="I187" t="s">
         <v>17</v>
       </c>
-      <c r="J187" s="6">
+      <c r="J187" s="31">
         <v>43563</v>
       </c>
       <c r="K187">
@@ -11920,7 +12124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
         <v>539</v>
       </c>
@@ -11961,7 +12165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
         <v>383</v>
       </c>
@@ -12002,7 +12206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
         <v>576</v>
       </c>
@@ -12043,7 +12247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
         <v>542</v>
       </c>
@@ -12084,8 +12288,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C192" t="s">
+    <row r="192" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C192" s="35" t="s">
         <v>153</v>
       </c>
       <c r="D192" t="s">
@@ -12100,13 +12304,13 @@
       <c r="G192" t="s">
         <v>50</v>
       </c>
-      <c r="H192" s="5">
+      <c r="H192" s="35">
         <v>100371.31</v>
       </c>
       <c r="I192" t="s">
         <v>17</v>
       </c>
-      <c r="J192" s="6">
+      <c r="J192" s="31">
         <v>44067</v>
       </c>
       <c r="K192">
@@ -12125,7 +12329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
         <v>694</v>
       </c>
@@ -12166,7 +12370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C194" t="s">
         <v>237</v>
       </c>
@@ -12207,7 +12411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
         <v>237</v>
       </c>
@@ -12248,7 +12452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C196" t="s">
         <v>475</v>
       </c>
@@ -12289,8 +12493,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C197" t="s">
+    <row r="197" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C197" s="35" t="s">
         <v>300</v>
       </c>
       <c r="D197" t="s">
@@ -12305,13 +12509,13 @@
       <c r="G197" t="s">
         <v>50</v>
       </c>
-      <c r="H197" s="5">
+      <c r="H197" s="35">
         <v>104038.9</v>
       </c>
       <c r="I197" t="s">
         <v>17</v>
       </c>
-      <c r="J197" s="6">
+      <c r="J197" s="31">
         <v>43815</v>
       </c>
       <c r="K197">
@@ -12330,7 +12534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C198" t="s">
         <v>732</v>
       </c>
@@ -12371,7 +12575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
         <v>587</v>
       </c>
@@ -12412,7 +12616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
         <v>636</v>
       </c>
@@ -12453,7 +12657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
         <v>463</v>
       </c>
@@ -12494,7 +12698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
         <v>615</v>
       </c>
@@ -12535,7 +12739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
         <v>710</v>
       </c>
@@ -12576,7 +12780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C204" t="s">
         <v>62</v>
       </c>
@@ -12617,7 +12821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C205" t="s">
         <v>478</v>
       </c>
@@ -12658,7 +12862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C206" t="s">
         <v>478</v>
       </c>
@@ -12699,7 +12903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
         <v>545</v>
       </c>
@@ -12740,7 +12944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C208" t="s">
         <v>663</v>
       </c>
@@ -12781,7 +12985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
         <v>177</v>
       </c>
@@ -12822,7 +13026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
         <v>472</v>
       </c>
@@ -12863,7 +13067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
         <v>572</v>
       </c>
@@ -12904,7 +13108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
         <v>222</v>
       </c>
@@ -12945,7 +13149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
         <v>498</v>
       </c>
@@ -12986,7 +13190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
         <v>288</v>
       </c>
@@ -13027,7 +13231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
         <v>398</v>
       </c>
@@ -13068,7 +13272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
         <v>398</v>
       </c>
@@ -13109,8 +13313,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C217" t="s">
+    <row r="217" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C217" s="35" t="s">
         <v>297</v>
       </c>
       <c r="D217" t="s">
@@ -13125,13 +13329,13 @@
       <c r="G217" t="s">
         <v>36</v>
       </c>
-      <c r="H217" s="5">
+      <c r="H217" s="35">
         <v>101187.36</v>
       </c>
       <c r="I217" t="s">
         <v>17</v>
       </c>
-      <c r="J217" s="6">
+      <c r="J217" s="31">
         <v>43258</v>
       </c>
       <c r="K217">
@@ -13150,7 +13354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C218" t="s">
         <v>516</v>
       </c>
@@ -13191,7 +13395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
         <v>165</v>
       </c>
@@ -13232,8 +13436,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C220" t="s">
+    <row r="220" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C220" s="35" t="s">
         <v>599</v>
       </c>
       <c r="D220" t="s">
@@ -13248,13 +13452,13 @@
       <c r="G220" t="s">
         <v>101</v>
       </c>
-      <c r="H220" s="5">
+      <c r="H220" s="35">
         <v>102515.81</v>
       </c>
       <c r="I220" t="s">
         <v>17</v>
       </c>
-      <c r="J220" s="6">
+      <c r="J220" s="31">
         <v>43902</v>
       </c>
       <c r="K220">
@@ -13273,7 +13477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
         <v>33</v>
       </c>
@@ -13314,8 +13518,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C222" t="s">
+    <row r="222" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C222" s="35" t="s">
         <v>330</v>
       </c>
       <c r="D222" t="s">
@@ -13330,13 +13534,13 @@
       <c r="G222" t="s">
         <v>36</v>
       </c>
-      <c r="H222" s="5">
+      <c r="H222" s="35">
         <v>112778.28</v>
       </c>
       <c r="I222" t="s">
         <v>17</v>
       </c>
-      <c r="J222" s="6">
+      <c r="J222" s="31">
         <v>43250</v>
       </c>
       <c r="K222">
@@ -13355,8 +13559,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C223" t="s">
+    <row r="223" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C223" s="35" t="s">
         <v>330</v>
       </c>
       <c r="D223" t="s">
@@ -13371,13 +13575,13 @@
       <c r="G223" t="s">
         <v>36</v>
       </c>
-      <c r="H223" s="5">
+      <c r="H223" s="35">
         <v>112778.28</v>
       </c>
       <c r="I223" t="s">
         <v>17</v>
       </c>
-      <c r="J223" s="6">
+      <c r="J223" s="31">
         <v>43250</v>
       </c>
       <c r="K223">
@@ -13396,7 +13600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
         <v>677</v>
       </c>
@@ -13437,7 +13641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C225" t="s">
         <v>249</v>
       </c>
@@ -13478,7 +13682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C226" t="s">
         <v>228</v>
       </c>
@@ -13519,7 +13723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C227" t="s">
         <v>144</v>
       </c>
@@ -13560,7 +13764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C228" t="s">
         <v>144</v>
       </c>
@@ -13601,7 +13805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
         <v>425</v>
       </c>
@@ -13642,7 +13846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C230" t="s">
         <v>315</v>
       </c>
@@ -13683,7 +13887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C231" t="s">
         <v>315</v>
       </c>
@@ -13724,7 +13928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C232" t="s">
         <v>73</v>
       </c>
@@ -13765,8 +13969,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C233" t="s">
+    <row r="233" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C233" s="35" t="s">
         <v>255</v>
       </c>
       <c r="D233" t="s">
@@ -13781,13 +13985,13 @@
       <c r="G233" t="s">
         <v>16</v>
       </c>
-      <c r="H233" s="5">
+      <c r="H233" s="35">
         <v>114465.93</v>
       </c>
       <c r="I233" t="s">
         <v>17</v>
       </c>
-      <c r="J233" s="6">
+      <c r="J233" s="31">
         <v>43291</v>
       </c>
       <c r="K233">
@@ -13806,7 +14010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C234" t="s">
         <v>442</v>
       </c>
@@ -13847,7 +14051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C235" t="s">
         <v>85</v>
       </c>
@@ -13888,7 +14092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
         <v>270</v>
       </c>
@@ -13929,8 +14133,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C237" t="s">
+    <row r="237" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C237" s="35" t="s">
         <v>159</v>
       </c>
       <c r="D237" t="s">
@@ -13945,13 +14149,13 @@
       <c r="G237" t="s">
         <v>36</v>
       </c>
-      <c r="H237" s="5">
+      <c r="H237" s="35">
         <v>114691.03</v>
       </c>
       <c r="I237" t="s">
         <v>17</v>
       </c>
-      <c r="J237" s="6">
+      <c r="J237" s="31">
         <v>44039</v>
       </c>
       <c r="K237">
@@ -13970,7 +14174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C238" t="s">
         <v>584</v>
       </c>
@@ -14011,7 +14215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
         <v>261</v>
       </c>
@@ -14052,8 +14256,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C240" t="s">
+    <row r="240" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C240" s="35" t="s">
         <v>243</v>
       </c>
       <c r="D240" t="s">
@@ -14068,13 +14272,13 @@
       <c r="G240" t="s">
         <v>131</v>
       </c>
-      <c r="H240" s="5">
+      <c r="H240" s="35">
         <v>113747.56</v>
       </c>
       <c r="I240" t="s">
         <v>17</v>
       </c>
-      <c r="J240" s="6">
+      <c r="J240" s="31">
         <v>44270</v>
       </c>
       <c r="K240">
@@ -14093,8 +14297,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C241" t="s">
+    <row r="241" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C241" s="35" t="s">
         <v>243</v>
       </c>
       <c r="D241" t="s">
@@ -14109,13 +14313,13 @@
       <c r="G241" t="s">
         <v>131</v>
       </c>
-      <c r="H241" s="5">
+      <c r="H241" s="35">
         <v>113747.56</v>
       </c>
       <c r="I241" t="s">
         <v>17</v>
       </c>
-      <c r="J241" s="6">
+      <c r="J241" s="31">
         <v>44270</v>
       </c>
       <c r="K241">
@@ -14134,7 +14338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C242" t="s">
         <v>354</v>
       </c>
@@ -14175,7 +14379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
         <v>138</v>
       </c>
@@ -14216,7 +14420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C244" t="s">
         <v>138</v>
       </c>
@@ -14257,7 +14461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C245" t="s">
         <v>481</v>
       </c>
@@ -14298,7 +14502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C246" t="s">
         <v>380</v>
       </c>
@@ -14339,7 +14543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C247" t="s">
         <v>454</v>
       </c>
@@ -14380,7 +14584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C248" t="s">
         <v>701</v>
       </c>
@@ -14421,7 +14625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C249" t="s">
         <v>125</v>
       </c>
@@ -14462,7 +14666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C250" t="s">
         <v>171</v>
       </c>
@@ -14503,7 +14707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C251" t="s">
         <v>267</v>
       </c>
@@ -14544,8 +14748,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C252" t="s">
+    <row r="252" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C252" s="35" t="s">
         <v>374</v>
       </c>
       <c r="D252" t="s">
@@ -14560,13 +14764,13 @@
       <c r="G252" t="s">
         <v>32</v>
       </c>
-      <c r="H252" s="5">
+      <c r="H252" s="35">
         <v>111815.49</v>
       </c>
       <c r="I252" t="s">
         <v>17</v>
       </c>
-      <c r="J252" s="6">
+      <c r="J252" s="31">
         <v>43895</v>
       </c>
       <c r="K252">
@@ -14585,8 +14789,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C253" t="s">
+    <row r="253" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C253" s="35" t="s">
         <v>374</v>
       </c>
       <c r="D253" t="s">
@@ -14601,13 +14805,13 @@
       <c r="G253" t="s">
         <v>32</v>
       </c>
-      <c r="H253" s="5">
+      <c r="H253" s="35">
         <v>111815.49</v>
       </c>
       <c r="I253" t="s">
         <v>17</v>
       </c>
-      <c r="J253" s="6">
+      <c r="J253" s="31">
         <v>43895</v>
       </c>
       <c r="K253">
@@ -14626,8 +14830,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="254" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C254" t="s">
+    <row r="254" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C254" s="35" t="s">
         <v>201</v>
       </c>
       <c r="D254" t="s">
@@ -14642,13 +14846,13 @@
       <c r="G254" t="s">
         <v>36</v>
       </c>
-      <c r="H254" s="5">
+      <c r="H254" s="35">
         <v>116767.63</v>
       </c>
       <c r="I254" t="s">
         <v>17</v>
       </c>
-      <c r="J254" s="6">
+      <c r="J254" s="31">
         <v>43949</v>
       </c>
       <c r="K254">
@@ -14667,8 +14871,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="255" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C255" t="s">
+    <row r="255" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C255" s="35" t="s">
         <v>201</v>
       </c>
       <c r="D255" t="s">
@@ -14683,13 +14887,13 @@
       <c r="G255" t="s">
         <v>36</v>
       </c>
-      <c r="H255" s="5">
+      <c r="H255" s="35">
         <v>116767.63</v>
       </c>
       <c r="I255" t="s">
         <v>17</v>
       </c>
-      <c r="J255" s="6">
+      <c r="J255" s="31">
         <v>43949</v>
       </c>
       <c r="K255">
@@ -14708,7 +14912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C256" t="s">
         <v>112</v>
       </c>
@@ -14749,7 +14953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C257" t="s">
         <v>602</v>
       </c>
@@ -14790,8 +14994,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C258" t="s">
+    <row r="258" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C258" s="35" t="s">
         <v>651</v>
       </c>
       <c r="D258" t="s">
@@ -14806,13 +15010,13 @@
       <c r="G258" t="s">
         <v>25</v>
       </c>
-      <c r="H258" s="5">
+      <c r="H258" s="35">
         <v>106400.02</v>
       </c>
       <c r="I258" t="s">
         <v>17</v>
       </c>
-      <c r="J258" s="6">
+      <c r="J258" s="31">
         <v>44021</v>
       </c>
       <c r="K258">
@@ -14831,8 +15035,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C259" t="s">
+    <row r="259" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C259" s="35" t="s">
         <v>651</v>
       </c>
       <c r="D259" t="s">
@@ -14847,13 +15051,13 @@
       <c r="G259" t="s">
         <v>25</v>
       </c>
-      <c r="H259" s="5">
+      <c r="H259" s="35">
         <v>106400.02</v>
       </c>
       <c r="I259" t="s">
         <v>17</v>
       </c>
-      <c r="J259" s="6">
+      <c r="J259" s="31">
         <v>44021</v>
       </c>
       <c r="K259">
@@ -14872,7 +15076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C260" t="s">
         <v>522</v>
       </c>
@@ -14913,7 +15117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C261" t="s">
         <v>536</v>
       </c>
@@ -14954,7 +15158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C262" t="s">
         <v>528</v>
       </c>
@@ -14995,8 +15199,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C263" t="s">
+    <row r="263" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C263" s="35" t="s">
         <v>457</v>
       </c>
       <c r="D263" t="s">
@@ -15011,13 +15215,13 @@
       <c r="G263" t="s">
         <v>124</v>
       </c>
-      <c r="H263" s="5">
+      <c r="H263" s="35">
         <v>106665.67</v>
       </c>
       <c r="I263" t="s">
         <v>17</v>
       </c>
-      <c r="J263" s="6">
+      <c r="J263" s="31">
         <v>43311</v>
       </c>
       <c r="K263">
@@ -15036,7 +15240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C264" t="s">
         <v>135</v>
       </c>
@@ -15077,8 +15281,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C265" t="s">
+    <row r="265" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C265" s="35" t="s">
         <v>150</v>
       </c>
       <c r="D265" t="s">
@@ -15093,13 +15297,13 @@
       <c r="G265" t="s">
         <v>124</v>
       </c>
-      <c r="H265" s="5">
+      <c r="H265" s="35">
         <v>110906.35</v>
       </c>
       <c r="I265" t="s">
         <v>17</v>
       </c>
-      <c r="J265" s="6">
+      <c r="J265" s="31">
         <v>43434</v>
       </c>
       <c r="K265">
@@ -15118,7 +15322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C266" t="s">
         <v>725</v>
       </c>
@@ -15159,7 +15363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="C267" t="s">
         <v>306</v>
       </c>
@@ -15207,4 +15411,3735 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9475442-EE53-4F6F-A550-D55D62A07395}">
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>769</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>770</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>771</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" ref="C3:C14">COUNTIFS(staff[Department],B3:B14)</f>
+        <v>24</v>
+      </c>
+      <c r="D3" s="26" cm="1">
+        <f t="array" ref="D3:D14">SUMIFS(staff[Salary],staff[Department],B3:B14)</f>
+        <v>2013215.1600000001</v>
+      </c>
+      <c r="E3" s="27" cm="1">
+        <f t="array" ref="E3:E14">AVERAGEIFS(staff[Salary],staff[Department],B3:B14)</f>
+        <v>83883.965000000011</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3:F14">COUNTIFS(staff[Employee type],"Permanent",staff[Department],B3:B14)</f>
+        <v>11</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3:G14">COUNTIFS(staff[Department],B3:B14,staff[Gender],"Female")</f>
+        <v>17</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3:H14">COUNTIFS(staff[Department],B3:B14,staff[Gender],"Female",staff[Employee type],"Permanent")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4" s="26">
+        <v>2074326.9500000002</v>
+      </c>
+      <c r="E4" s="26">
+        <v>79781.805769230778</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5" s="26">
+        <v>2131387.4899999998</v>
+      </c>
+      <c r="E5" s="27">
+        <v>81976.441923076913</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6" s="26">
+        <v>773295.6</v>
+      </c>
+      <c r="E6" s="27">
+        <v>64441.299999999996</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7" s="26">
+        <v>1412092.87</v>
+      </c>
+      <c r="E7" s="27">
+        <v>67242.51761904762</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1814980.59</v>
+      </c>
+      <c r="E8" s="27">
+        <v>69806.945769230777</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1608406.3100000003</v>
+      </c>
+      <c r="E9" s="27">
+        <v>73109.377727272746</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1204393.78</v>
+      </c>
+      <c r="E10" s="27">
+        <v>66910.765555555554</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1568153.47</v>
+      </c>
+      <c r="E11" s="27">
+        <v>74673.974761904756</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12" s="26">
+        <v>2180192.8699999992</v>
+      </c>
+      <c r="E12" s="27">
+        <v>75179.064482758593</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1129351.75</v>
+      </c>
+      <c r="E13" s="27">
+        <v>66432.455882352937</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14" s="26">
+        <v>1294147.72</v>
+      </c>
+      <c r="E14" s="27">
+        <v>71897.095555555556</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:B16" xr:uid="{E9475442-EE53-4F6F-A550-D55D62A07395}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70636FF-F6B1-4F65-87B4-6E77157F05B1}">
+  <dimension ref="B2:N105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="34" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="32" t="str" cm="1">
+        <f t="array" ref="B3:N3">staff[#Headers]</f>
+        <v>Emp ID</v>
+      </c>
+      <c r="C3" s="32" t="str">
+        <v>First Name</v>
+      </c>
+      <c r="D3" s="32" t="str">
+        <v>Last Name</v>
+      </c>
+      <c r="E3" s="33" t="str">
+        <v>Gender</v>
+      </c>
+      <c r="F3" s="33" t="str">
+        <v>Department</v>
+      </c>
+      <c r="G3" s="33" t="str">
+        <v>Salary</v>
+      </c>
+      <c r="H3" s="33" t="str">
+        <v>Salary Bucket</v>
+      </c>
+      <c r="I3" s="33" t="str">
+        <v>Start Date</v>
+      </c>
+      <c r="J3" s="33" t="str">
+        <v>FTE</v>
+      </c>
+      <c r="K3" s="33" t="str">
+        <v>Employee type</v>
+      </c>
+      <c r="L3" s="33" t="str">
+        <v>Work location</v>
+      </c>
+      <c r="M3" s="33" t="str">
+        <v>Tenure</v>
+      </c>
+      <c r="N3" s="33" t="str">
+        <v>Work Type</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4:N50">_xlfn._xlws.FILTER(staff[],staff[Salary]&gt;100000)</f>
+        <v>PR00147</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Minerva</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Ricardot</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G4">
+        <v>120000</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I4" s="31">
+        <v>43416</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M4">
+        <v>5.6109589041095891</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="str">
+        <v>PR00746</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Hogan</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Iles</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G5">
+        <v>114177.23</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I5" s="31">
+        <v>43908</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M5">
+        <v>4.2630136986301368</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <v>PR01159</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Mollie</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Hanway</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G6">
+        <v>112645.99</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I6" s="31">
+        <v>43759</v>
+      </c>
+      <c r="J6">
+        <v>0.6</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M6">
+        <v>4.6712328767123283</v>
+      </c>
+      <c r="N6" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
+        <v>PR02010</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Prerana</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Nishita</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G7">
+        <v>115191.38</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I7" s="31">
+        <v>44004</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <v>PR02208</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Gowri</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Sankar</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G8">
+        <v>102934.09</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I8" s="31">
+        <v>44315</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L8" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M8">
+        <v>3.1479452054794521</v>
+      </c>
+      <c r="N8" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <v>PR02288</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Althea</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Bronger</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G9">
+        <v>104335.03999999999</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I9" s="31">
+        <v>43874</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M9">
+        <v>4.3561643835616435</v>
+      </c>
+      <c r="N9" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <v>PR03886</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Edd</v>
+      </c>
+      <c r="D10" t="str">
+        <v>MacKnockiter</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G10">
+        <v>119022.49</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I10" s="31">
+        <v>44431</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M10">
+        <v>2.8301369863013699</v>
+      </c>
+      <c r="N10" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <v>PR04601</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Yedukondalu</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Panditula</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Need to check</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G11">
+        <v>104802.63</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I11" s="31">
+        <v>44502</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L11" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M11">
+        <v>2.6356164383561644</v>
+      </c>
+      <c r="N11" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <v>SQ00022</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Carlin</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Demke</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G12">
+        <v>110042.37</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I12" s="31">
+        <v>43914</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L12" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M12">
+        <v>4.2465753424657535</v>
+      </c>
+      <c r="N12" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="str">
+        <v>SQ00144</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Collen</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Dunbleton</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G13">
+        <v>118976.16</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I13" s="31">
+        <v>44120</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L13" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M13">
+        <v>3.6821917808219178</v>
+      </c>
+      <c r="N13" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <v>SQ00498</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Amery</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Ofer</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G14">
+        <v>111049.84</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I14" s="31">
+        <v>44393</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L14" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M14">
+        <v>2.9342465753424656</v>
+      </c>
+      <c r="N14" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <v>SQ01620</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Westbrook</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Brandino</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G15">
+        <v>113616.23</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I15" s="31">
+        <v>43255</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L15" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M15">
+        <v>6.0520547945205481</v>
+      </c>
+      <c r="N15" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <v>SQ02035</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Anni</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Izzard</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G16">
+        <v>103494.94</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I16" s="31">
+        <v>43256</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L16" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M16">
+        <v>6.0493150684931507</v>
+      </c>
+      <c r="N16" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <v>SQ02035</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Anni</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Izzard</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G17">
+        <v>103494.94</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I17" s="31">
+        <v>43256</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L17" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M17">
+        <v>6.0493150684931507</v>
+      </c>
+      <c r="N17" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <v>SQ02174</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Sidoney</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Yitzhok</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G18">
+        <v>118442.54</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I18" s="31">
+        <v>44193</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L18" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M18">
+        <v>3.4821917808219176</v>
+      </c>
+      <c r="N18" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" t="str">
+        <v>SQ02624</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Gwenneth</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Fealey</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G19">
+        <v>114772.32</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I19" s="31">
+        <v>44251</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L19" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M19">
+        <v>3.3232876712328765</v>
+      </c>
+      <c r="N19" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <v>SQ02703</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Deepit</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Ranjana</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="G20">
+        <v>104903.79</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I20" s="31">
+        <v>43649</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L20" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M20">
+        <v>4.9726027397260273</v>
+      </c>
+      <c r="N20" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" t="str">
+        <v>SQ03116</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Syd</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Fearn</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G21">
+        <v>108872.77</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I21" s="31">
+        <v>43521</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L21" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M21">
+        <v>5.3232876712328769</v>
+      </c>
+      <c r="N21" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" t="str">
+        <v>SQ03387</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Robinia</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Scholling</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G22">
+        <v>100731.95</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I22" s="31">
+        <v>43936</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L22" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M22">
+        <v>4.1863013698630134</v>
+      </c>
+      <c r="N22" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" t="str">
+        <v>SQ03476</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Ramalingam</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Kothapeta</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Need to check</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G23">
+        <v>107107.6</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I23" s="31">
+        <v>43325</v>
+      </c>
+      <c r="J23">
+        <v>0.9</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L23" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M23">
+        <v>5.86027397260274</v>
+      </c>
+      <c r="N23" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" t="str">
+        <v>SQ03491</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Freda</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Legan</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G24">
+        <v>102129.37</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I24" s="31">
+        <v>44396</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L24" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M24">
+        <v>2.9260273972602739</v>
+      </c>
+      <c r="N24" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" t="str">
+        <v>SQ03733</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Revkah</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Antonacci</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G25">
+        <v>109143.17</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I25" s="31">
+        <v>43945</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L25" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M25">
+        <v>4.161643835616438</v>
+      </c>
+      <c r="N25" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" t="str">
+        <v>SQ04603</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Natalee</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Craiker</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G26">
+        <v>111229.47</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I26" s="31">
+        <v>43402</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L26" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M26">
+        <v>5.6493150684931503</v>
+      </c>
+      <c r="N26" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" t="str">
+        <v>SQ04612</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Mick</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Spraberry</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G27">
+        <v>120000</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I27" s="31">
+        <v>43902</v>
+      </c>
+      <c r="J27">
+        <v>0.9</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L27" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M27">
+        <v>4.279452054794521</v>
+      </c>
+      <c r="N27" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" t="str">
+        <v>SQ04665</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Collin</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Jagson</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G28">
+        <v>100424.23</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I28" s="31">
+        <v>43801</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L28" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M28">
+        <v>4.5561643835616437</v>
+      </c>
+      <c r="N28" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" t="str">
+        <v>TN00579</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Rafaelita</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Blaksland</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G29">
+        <v>109163.39</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I29" s="31">
+        <v>44019</v>
+      </c>
+      <c r="J29">
+        <v>0.8</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L29" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M29">
+        <v>3.9589041095890409</v>
+      </c>
+      <c r="N29" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" t="str">
+        <v>TN01281</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Cletus</v>
+      </c>
+      <c r="D30" t="str">
+        <v>McGarahan</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G30">
+        <v>114425.19</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I30" s="31">
+        <v>43857</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L30" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M30">
+        <v>4.4027397260273968</v>
+      </c>
+      <c r="N30" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" t="str">
+        <v>TN04058</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Subbarao</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Malladi</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G31">
+        <v>106775.14</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I31" s="31">
+        <v>43563</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L31" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M31">
+        <v>5.2082191780821914</v>
+      </c>
+      <c r="N31" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <v>TN04058</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Vasu</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Nandin</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G32">
+        <v>106775.14</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I32" s="31">
+        <v>43563</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L32" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M32">
+        <v>5.2082191780821914</v>
+      </c>
+      <c r="N32" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" t="str">
+        <v>TN04246</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Shaylyn</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Ransbury</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G33">
+        <v>100371.31</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I33" s="31">
+        <v>44067</v>
+      </c>
+      <c r="J33">
+        <v>0.8</v>
+      </c>
+      <c r="K33" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L33" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M33">
+        <v>3.8273972602739725</v>
+      </c>
+      <c r="N33" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" t="str">
+        <v>TN04740</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Tristam</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Cuming</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G34">
+        <v>104038.9</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I34" s="31">
+        <v>43815</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L34" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M34">
+        <v>4.5178082191780824</v>
+      </c>
+      <c r="N34" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" t="str">
+        <v>VT01684</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Audry</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Yu</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G35">
+        <v>101187.36</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I35" s="31">
+        <v>43258</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L35" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M35">
+        <v>6.043835616438356</v>
+      </c>
+      <c r="N35" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" t="str">
+        <v>VT01762</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Geena</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Raghavanpillai</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G36">
+        <v>102515.81</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I36" s="31">
+        <v>43902</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L36" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M36">
+        <v>4.279452054794521</v>
+      </c>
+      <c r="N36" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" t="str">
+        <v>VT01893</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Lindy</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Guillet</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G37">
+        <v>112778.28</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I37" s="31">
+        <v>43250</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L37" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M37">
+        <v>6.065753424657534</v>
+      </c>
+      <c r="N37" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" t="str">
+        <v>VT01893</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Lindy</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Guillet</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G38">
+        <v>112778.28</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I38" s="31">
+        <v>43250</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L38" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M38">
+        <v>6.065753424657534</v>
+      </c>
+      <c r="N38" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <v>VT02491</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Alexis</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Gotfrey</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G39">
+        <v>114465.93</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I39" s="31">
+        <v>43291</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L39" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M39">
+        <v>5.9534246575342467</v>
+      </c>
+      <c r="N39" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <v>VT02801</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Shellysheldon</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Mahady</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G40">
+        <v>114691.03</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I40" s="31">
+        <v>44039</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L40" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M40">
+        <v>3.904109589041096</v>
+      </c>
+      <c r="N40" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" t="str">
+        <v>VT03421</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Alic</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Bagg</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G41">
+        <v>113747.56</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I41" s="31">
+        <v>44270</v>
+      </c>
+      <c r="J41">
+        <v>0.7</v>
+      </c>
+      <c r="K41" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L41" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M41">
+        <v>3.2712328767123289</v>
+      </c>
+      <c r="N41" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" t="str">
+        <v>VT03421</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Alic</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Bagg</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G42">
+        <v>113747.56</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I42" s="31">
+        <v>44270</v>
+      </c>
+      <c r="J42">
+        <v>0.7</v>
+      </c>
+      <c r="K42" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L42" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M42">
+        <v>3.2712328767123289</v>
+      </c>
+      <c r="N42" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <v>VT04028</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Michale</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Rolf</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G43">
+        <v>111815.49</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I43" s="31">
+        <v>43895</v>
+      </c>
+      <c r="J43">
+        <v>0.7</v>
+      </c>
+      <c r="K43" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L43" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M43">
+        <v>4.2986301369863016</v>
+      </c>
+      <c r="N43" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <v>VT04028</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Michale</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Rolf</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G44">
+        <v>111815.49</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I44" s="31">
+        <v>43895</v>
+      </c>
+      <c r="J44">
+        <v>0.7</v>
+      </c>
+      <c r="K44" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L44" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M44">
+        <v>4.2986301369863016</v>
+      </c>
+      <c r="N44" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Prasanna</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Lakshmi</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G45">
+        <v>116767.63</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I45" s="31">
+        <v>43949</v>
+      </c>
+      <c r="J45">
+        <v>0.4</v>
+      </c>
+      <c r="K45" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L45" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M45">
+        <v>4.1506849315068495</v>
+      </c>
+      <c r="N45" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Baruna</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Ogale</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G46">
+        <v>116767.63</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I46" s="31">
+        <v>43949</v>
+      </c>
+      <c r="J46">
+        <v>0.4</v>
+      </c>
+      <c r="K46" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L46" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M46">
+        <v>4.1506849315068495</v>
+      </c>
+      <c r="N46" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" t="str">
+        <v>VT04350</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Kulbhushan</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Moorthy</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G47">
+        <v>106400.02</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I47" s="31">
+        <v>44021</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L47" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M47">
+        <v>3.9534246575342467</v>
+      </c>
+      <c r="N47" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48" t="str">
+        <v>VT04350</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Lalit</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Kothari</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G48">
+        <v>106400.02</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I48" s="31">
+        <v>44021</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L48" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M48">
+        <v>3.9534246575342467</v>
+      </c>
+      <c r="N48" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
+        <v>VT04552</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Theresita</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Chasmer</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G49">
+        <v>106665.67</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I49" s="31">
+        <v>43311</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L49" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M49">
+        <v>5.8986301369863012</v>
+      </c>
+      <c r="N49" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" t="str">
+        <v>VT04681</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Nickolai</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Artin</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G50">
+        <v>110906.35</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I50" s="31">
+        <v>43434</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L50" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M50">
+        <v>5.5616438356164384</v>
+      </c>
+      <c r="N50" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="37" t="s">
+        <v>775</v>
+      </c>
+      <c r="C53" s="37"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" t="str" cm="1">
+        <f t="array" ref="B54:N71">_xlfn._xlws.FILTER(staff[],(staff[Salary]&gt;100000)*(staff[Gender]="Female"))</f>
+        <v>PR00746</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Hogan</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Iles</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G54">
+        <v>114177.23</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I54">
+        <v>43908</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L54" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M54">
+        <v>4.2630136986301368</v>
+      </c>
+      <c r="N54" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" t="str">
+        <v>PR02208</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Gowri</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Sankar</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G55">
+        <v>102934.09</v>
+      </c>
+      <c r="H55" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I55">
+        <v>44315</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L55" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M55">
+        <v>3.1479452054794521</v>
+      </c>
+      <c r="N55" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" t="str">
+        <v>SQ00498</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Amery</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Ofer</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G56">
+        <v>111049.84</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I56">
+        <v>44393</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L56" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M56">
+        <v>2.9342465753424656</v>
+      </c>
+      <c r="N56" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" t="str">
+        <v>SQ02174</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Sidoney</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Yitzhok</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G57">
+        <v>118442.54</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I57">
+        <v>44193</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L57" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M57">
+        <v>3.4821917808219176</v>
+      </c>
+      <c r="N57" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" t="str">
+        <v>SQ02624</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Gwenneth</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Fealey</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G58">
+        <v>114772.32</v>
+      </c>
+      <c r="H58" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I58">
+        <v>44251</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L58" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M58">
+        <v>3.3232876712328765</v>
+      </c>
+      <c r="N58" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" t="str">
+        <v>SQ02703</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Deepit</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Ranjana</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="G59">
+        <v>104903.79</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I59">
+        <v>43649</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L59" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M59">
+        <v>4.9726027397260273</v>
+      </c>
+      <c r="N59" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" t="str">
+        <v>SQ03387</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Robinia</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Scholling</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G60">
+        <v>100731.95</v>
+      </c>
+      <c r="H60" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I60">
+        <v>43936</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L60" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M60">
+        <v>4.1863013698630134</v>
+      </c>
+      <c r="N60" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61" t="str">
+        <v>SQ03491</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Freda</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Legan</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G61">
+        <v>102129.37</v>
+      </c>
+      <c r="H61" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I61">
+        <v>44396</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L61" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M61">
+        <v>2.9260273972602739</v>
+      </c>
+      <c r="N61" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B62" t="str">
+        <v>SQ04612</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Mick</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Spraberry</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G62">
+        <v>120000</v>
+      </c>
+      <c r="H62" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I62">
+        <v>43902</v>
+      </c>
+      <c r="J62">
+        <v>0.9</v>
+      </c>
+      <c r="K62" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L62" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M62">
+        <v>4.279452054794521</v>
+      </c>
+      <c r="N62" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B63" t="str">
+        <v>TN00579</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Rafaelita</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Blaksland</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G63">
+        <v>109163.39</v>
+      </c>
+      <c r="H63" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I63">
+        <v>44019</v>
+      </c>
+      <c r="J63">
+        <v>0.8</v>
+      </c>
+      <c r="K63" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L63" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M63">
+        <v>3.9589041095890409</v>
+      </c>
+      <c r="N63" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B64" t="str">
+        <v>TN01281</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Cletus</v>
+      </c>
+      <c r="D64" t="str">
+        <v>McGarahan</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G64">
+        <v>114425.19</v>
+      </c>
+      <c r="H64" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I64">
+        <v>43857</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L64" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M64">
+        <v>4.4027397260273968</v>
+      </c>
+      <c r="N64" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" t="str">
+        <v>TN04246</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Shaylyn</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Ransbury</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G65">
+        <v>100371.31</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I65">
+        <v>44067</v>
+      </c>
+      <c r="J65">
+        <v>0.8</v>
+      </c>
+      <c r="K65" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L65" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M65">
+        <v>3.8273972602739725</v>
+      </c>
+      <c r="N65" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" t="str">
+        <v>TN04740</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Tristam</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Cuming</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G66">
+        <v>104038.9</v>
+      </c>
+      <c r="H66" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I66">
+        <v>43815</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L66" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M66">
+        <v>4.5178082191780824</v>
+      </c>
+      <c r="N66" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" t="str">
+        <v>VT01684</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Audry</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Yu</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G67">
+        <v>101187.36</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I67">
+        <v>43258</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L67" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M67">
+        <v>6.043835616438356</v>
+      </c>
+      <c r="N67" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Prasanna</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Lakshmi</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G68">
+        <v>116767.63</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I68">
+        <v>43949</v>
+      </c>
+      <c r="J68">
+        <v>0.4</v>
+      </c>
+      <c r="K68" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L68" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M68">
+        <v>4.1506849315068495</v>
+      </c>
+      <c r="N68" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B69" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Baruna</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Ogale</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G69">
+        <v>116767.63</v>
+      </c>
+      <c r="H69" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I69">
+        <v>43949</v>
+      </c>
+      <c r="J69">
+        <v>0.4</v>
+      </c>
+      <c r="K69" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L69" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M69">
+        <v>4.1506849315068495</v>
+      </c>
+      <c r="N69" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B70" t="str">
+        <v>VT04552</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Theresita</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Chasmer</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G70">
+        <v>106665.67</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I70">
+        <v>43311</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L70" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M70">
+        <v>5.8986301369863012</v>
+      </c>
+      <c r="N70" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B71" t="str">
+        <v>VT04681</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Nickolai</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Artin</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G71">
+        <v>110906.35</v>
+      </c>
+      <c r="H71" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I71">
+        <v>43434</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L71" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M71">
+        <v>5.5616438356164384</v>
+      </c>
+      <c r="N71" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B75" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B76" t="str" cm="1">
+        <f t="array" ref="B76:G93">_xlfn._xlws.FILTER(staff[[Emp ID]:[Salary]],(staff[Salary]&gt;100000)*(staff[Gender]="Female"))</f>
+        <v>PR00746</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Hogan</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Iles</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G76">
+        <v>114177.23</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B77" t="str">
+        <v>PR02208</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Gowri</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Sankar</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G77">
+        <v>102934.09</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B78" t="str">
+        <v>SQ00498</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Amery</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Ofer</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F78" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G78">
+        <v>111049.84</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B79" t="str">
+        <v>SQ02174</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Sidoney</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Yitzhok</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G79">
+        <v>118442.54</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B80" t="str">
+        <v>SQ02624</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Gwenneth</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Fealey</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G80">
+        <v>114772.32</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" t="str">
+        <v>SQ02703</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Deepit</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Ranjana</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="G81">
+        <v>104903.79</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" t="str">
+        <v>SQ03387</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Robinia</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Scholling</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G82">
+        <v>100731.95</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" t="str">
+        <v>SQ03491</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Freda</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Legan</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G83">
+        <v>102129.37</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" t="str">
+        <v>SQ04612</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Mick</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Spraberry</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G84">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" t="str">
+        <v>TN00579</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Rafaelita</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Blaksland</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G85">
+        <v>109163.39</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" t="str">
+        <v>TN01281</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Cletus</v>
+      </c>
+      <c r="D86" t="str">
+        <v>McGarahan</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G86">
+        <v>114425.19</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" t="str">
+        <v>TN04246</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Shaylyn</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Ransbury</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G87">
+        <v>100371.31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" t="str">
+        <v>TN04740</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Tristam</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Cuming</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G88">
+        <v>104038.9</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" t="str">
+        <v>VT01684</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Audry</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Yu</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G89">
+        <v>101187.36</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Prasanna</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Lakshmi</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G90">
+        <v>116767.63</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Baruna</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Ogale</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G91">
+        <v>116767.63</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" t="str">
+        <v>VT04552</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Theresita</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Chasmer</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G92">
+        <v>106665.67</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" t="str">
+        <v>VT04681</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Nickolai</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Artin</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G93">
+        <v>110906.35</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>100000</v>
+      </c>
+      <c r="C97" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B100" s="37" t="s">
+        <v>777</v>
+      </c>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="38"/>
+      <c r="L100" s="38"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B101" t="str" cm="1">
+        <f t="array" ref="B101:I101">INDEX(staff[#Headers],1,_xlfn.SEQUENCE(1,8))</f>
+        <v>Emp ID</v>
+      </c>
+      <c r="C101" t="str">
+        <v>First Name</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Last Name</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Gender</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Department</v>
+      </c>
+      <c r="G101" t="str">
+        <v>Salary</v>
+      </c>
+      <c r="H101" t="str">
+        <v>Salary Bucket</v>
+      </c>
+      <c r="I101" t="str">
+        <v>Start Date</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B102" t="str" cm="1">
+        <f t="array" ref="B102:I105">_xlfn._xlws.FILTER(staff[[Emp ID]:[Start Date]],(staff[Salary]&gt;B97)*(staff[Gender]="Female")*(staff[Start Date]&gt;DATE(2020,12,31)))</f>
+        <v>PR02208</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Gowri</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Sankar</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G102">
+        <v>102934.09</v>
+      </c>
+      <c r="H102" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I102">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B103" t="str">
+        <v>SQ00498</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Amery</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Ofer</v>
+      </c>
+      <c r="E103" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F103" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G103">
+        <v>111049.84</v>
+      </c>
+      <c r="H103" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I103">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B104" t="str">
+        <v>SQ02624</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Gwenneth</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Fealey</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G104">
+        <v>114772.32</v>
+      </c>
+      <c r="H104" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I104">
+        <v>44251</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B105" t="str">
+        <v>SQ03491</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Freda</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Legan</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F105" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G105">
+        <v>102129.37</v>
+      </c>
+      <c r="H105" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I105">
+        <v>44396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1416C-219B-4C61-AF15-816AE14BC08D}">
+  <dimension ref="B3:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="E3" s="43" t="s">
+        <v>781</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B4" s="40" t="s">
+        <v>778</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="44">
+        <f>MIN(staff[Salary])</f>
+        <v>28160.79</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B5" s="40" t="s">
+        <v>779</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="44">
+        <f>MAX(staff[Salary])</f>
+        <v>120000</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B6" s="40" t="s">
+        <v>780</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="44" cm="1">
+        <f t="array" ref="E6:E10">LARGE(staff[Salary],I6:I10)</f>
+        <v>120000</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="39"/>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="E7" s="44">
+        <v>120000</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="39"/>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="E8" s="44">
+        <v>119022.49</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="39"/>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="E9" s="44">
+        <v>118976.16</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="39"/>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="E10" s="44">
+        <v>118442.54</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="39"/>
+      <c r="I10">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>